--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_20-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_20-36.xlsx
@@ -209,6 +209,9 @@
     <t>2:1</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -450,6 +453,9 @@
   </si>
   <si>
     <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>ULTRASOLV 10 F.C. TAB</t>
   </si>
   <si>
     <t xml:space="preserve">URINEX 36 CAP </t>
@@ -2217,17 +2223,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2243,13 +2249,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2275,7 +2281,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2295,17 +2301,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2321,17 +2327,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2339,7 +2345,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2347,17 +2353,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2365,7 +2371,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2373,13 +2379,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2391,7 +2397,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2399,17 +2405,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2425,13 +2431,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2451,13 +2457,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2477,17 +2483,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2509,7 +2515,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>55.670000000000002</v>
+        <v>28</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2529,17 +2535,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>45</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2555,13 +2561,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2581,13 +2587,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2599,7 +2605,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2607,13 +2613,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2633,17 +2639,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2659,17 +2665,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>15.300000000000001</v>
+        <v>56</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2691,7 +2697,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>65</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2711,13 +2717,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>85.560000000000002</v>
+        <v>65</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2737,13 +2743,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>39</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2763,13 +2769,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>50.960000000000001</v>
+        <v>39</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2789,13 +2795,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>65</v>
+        <v>50.960000000000001</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2815,17 +2821,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2833,7 +2839,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2841,17 +2847,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2873,7 +2879,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>69.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2893,17 +2899,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>32</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2911,7 +2917,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2919,17 +2925,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2945,17 +2951,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>27.329999999999998</v>
+        <v>75</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2971,17 +2977,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>218.69999999999999</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2997,17 +3003,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>0</v>
+        <v>218.69999999999999</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3023,17 +3029,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -3049,13 +3055,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>31</v>
+        <v>277.5</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -3075,13 +3081,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -3101,13 +3107,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -3127,13 +3133,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -3153,13 +3159,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -3179,17 +3185,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3197,7 +3203,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3205,7 +3211,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -3215,7 +3221,7 @@
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3231,17 +3237,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3257,13 +3263,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>62.549999999999997</v>
+        <v>24</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3289,7 +3295,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>240</v>
+        <v>62.549999999999997</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3315,7 +3321,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3335,17 +3341,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3353,7 +3359,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3361,17 +3367,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3387,17 +3393,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3413,17 +3419,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3439,17 +3445,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3457,7 +3463,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3465,17 +3471,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3491,13 +3497,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3517,17 +3523,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3543,17 +3549,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3569,13 +3575,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3595,17 +3601,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>56.399999999999999</v>
+        <v>30</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3613,7 +3619,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3621,13 +3627,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>23</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3647,17 +3653,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3673,13 +3679,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3699,13 +3705,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3725,13 +3731,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>65.75</v>
+        <v>103</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3751,17 +3757,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>15</v>
+        <v>65.75</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3777,17 +3783,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3809,7 +3815,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
@@ -3829,17 +3835,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3855,17 +3861,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>249.47999999999999</v>
+        <v>18</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3887,7 +3893,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>130</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3907,17 +3913,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3925,7 +3931,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3933,17 +3939,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3959,17 +3965,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3985,17 +3991,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -4011,17 +4017,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -4037,17 +4043,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -4063,17 +4069,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -4089,17 +4095,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -4115,17 +4121,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4141,17 +4147,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4167,17 +4173,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4193,17 +4199,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4219,17 +4225,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4245,17 +4251,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>9.9499999999999993</v>
+        <v>26</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4263,7 +4269,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4271,13 +4277,13 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
@@ -4289,7 +4295,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4297,13 +4303,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>224</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4323,17 +4329,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4349,17 +4355,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4375,17 +4381,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>58.200000000000003</v>
+        <v>31</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4393,7 +4399,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4401,7 +4407,7 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
@@ -4419,7 +4425,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4427,13 +4433,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>90</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
@@ -4453,13 +4459,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
@@ -4479,13 +4485,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
@@ -4505,13 +4511,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="M129" s="9"/>
       <c t="s" r="N129" s="7">
@@ -4531,13 +4537,13 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="M130" s="9"/>
       <c t="s" r="N130" s="7">
@@ -4557,13 +4563,13 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M131" s="9"/>
       <c t="s" r="N131" s="7">
@@ -4583,17 +4589,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M132" s="9"/>
       <c t="s" r="N132" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4601,7 +4607,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4609,17 +4615,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M133" s="9"/>
       <c t="s" r="N133" s="7">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4627,7 +4633,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4641,11 +4647,11 @@
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M134" s="9"/>
       <c t="s" r="N134" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4653,7 +4659,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4661,17 +4667,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M135" s="9"/>
       <c t="s" r="N135" s="7">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4679,7 +4685,7 @@
         <v>133</v>
       </c>
       <c t="s" r="B136" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4687,17 +4693,17 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M136" s="9"/>
       <c t="s" r="N136" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -4705,7 +4711,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4713,13 +4719,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M137" s="9"/>
       <c t="s" r="N137" s="7">
@@ -4739,13 +4745,13 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="M138" s="9"/>
       <c t="s" r="N138" s="7">
@@ -4765,13 +4771,13 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="M139" s="9"/>
       <c t="s" r="N139" s="7">
@@ -4791,13 +4797,13 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="M140" s="9"/>
       <c t="s" r="N140" s="7">
@@ -4817,13 +4823,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="M141" s="9"/>
       <c t="s" r="N141" s="7">
@@ -4835,7 +4841,7 @@
         <v>139</v>
       </c>
       <c t="s" r="B142" s="7">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4843,13 +4849,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M142" s="9"/>
       <c t="s" r="N142" s="7">
@@ -4861,7 +4867,7 @@
         <v>140</v>
       </c>
       <c t="s" r="B143" s="7">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
@@ -4869,13 +4875,13 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="M143" s="9"/>
       <c t="s" r="N143" s="7">
@@ -4887,7 +4893,7 @@
         <v>141</v>
       </c>
       <c t="s" r="B144" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -4895,13 +4901,13 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M144" s="9"/>
       <c t="s" r="N144" s="7">
@@ -4921,13 +4927,13 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
       <c t="s" r="H145" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
       <c r="L145" s="9">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M145" s="9"/>
       <c t="s" r="N145" s="7">
@@ -4947,13 +4953,13 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c t="s" r="H146" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
       <c r="K146" s="8"/>
       <c r="L146" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M146" s="9"/>
       <c t="s" r="N146" s="7">
@@ -4973,13 +4979,13 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c t="s" r="H147" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="M147" s="9"/>
       <c t="s" r="N147" s="7">
@@ -4999,13 +5005,13 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c t="s" r="H148" s="8">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M148" s="9"/>
       <c t="s" r="N148" s="7">
@@ -5025,13 +5031,13 @@
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c t="s" r="H149" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
       <c r="L149" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="M149" s="9"/>
       <c t="s" r="N149" s="7">
@@ -5051,17 +5057,17 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c t="s" r="H150" s="8">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
       <c r="L150" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M150" s="9"/>
       <c t="s" r="N150" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" ht="24.75" customHeight="1">
@@ -5077,13 +5083,13 @@
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c t="s" r="H151" s="8">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
       <c r="L151" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M151" s="9"/>
       <c t="s" r="N151" s="7">
@@ -5095,7 +5101,7 @@
         <v>149</v>
       </c>
       <c t="s" r="B152" s="7">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
@@ -5103,17 +5109,17 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
       <c t="s" r="H152" s="8">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
       <c r="L152" s="9">
-        <v>9.5</v>
+        <v>30</v>
       </c>
       <c r="M152" s="9"/>
       <c t="s" r="N152" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" ht="25.5" customHeight="1">
@@ -5121,7 +5127,7 @@
         <v>150</v>
       </c>
       <c t="s" r="B153" s="7">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -5129,13 +5135,13 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c t="s" r="H153" s="8">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
       <c r="L153" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M153" s="9"/>
       <c t="s" r="N153" s="7">
@@ -5147,7 +5153,7 @@
         <v>151</v>
       </c>
       <c t="s" r="B154" s="7">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
@@ -5155,13 +5161,13 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c t="s" r="H154" s="8">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
       <c r="L154" s="9">
-        <v>170</v>
+        <v>9.5</v>
       </c>
       <c r="M154" s="9"/>
       <c t="s" r="N154" s="7">
@@ -5181,13 +5187,13 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c t="s" r="H155" s="8">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
       <c r="K155" s="8"/>
       <c r="L155" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M155" s="9"/>
       <c t="s" r="N155" s="7">
@@ -5207,13 +5213,13 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
       <c t="s" r="H156" s="8">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
       <c r="K156" s="8"/>
       <c r="L156" s="9">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="M156" s="9"/>
       <c t="s" r="N156" s="7">
@@ -5233,13 +5239,13 @@
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
       <c t="s" r="H157" s="8">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
       <c r="K157" s="8"/>
       <c r="L157" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M157" s="9"/>
       <c t="s" r="N157" s="7">
@@ -5259,13 +5265,13 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c t="s" r="H158" s="8">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
       <c r="K158" s="8"/>
       <c r="L158" s="9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M158" s="9"/>
       <c t="s" r="N158" s="7">
@@ -5285,13 +5291,13 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c t="s" r="H159" s="8">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
       <c r="K159" s="8"/>
       <c r="L159" s="9">
-        <v>25</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M159" s="9"/>
       <c t="s" r="N159" s="7">
@@ -5311,13 +5317,13 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c t="s" r="H160" s="8">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
       <c r="K160" s="8"/>
       <c r="L160" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M160" s="9"/>
       <c t="s" r="N160" s="7">
@@ -5337,13 +5343,13 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c t="s" r="H161" s="8">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
       <c r="K161" s="8"/>
       <c r="L161" s="9">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M161" s="9"/>
       <c t="s" r="N161" s="7">
@@ -5363,13 +5369,13 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c t="s" r="H162" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
       <c r="K162" s="8"/>
       <c r="L162" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="M162" s="9"/>
       <c t="s" r="N162" s="7">
@@ -5389,13 +5395,13 @@
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c t="s" r="H163" s="8">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
       <c r="K163" s="8"/>
       <c r="L163" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M163" s="9"/>
       <c t="s" r="N163" s="7">
@@ -5407,7 +5413,7 @@
         <v>161</v>
       </c>
       <c t="s" r="B164" s="7">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
@@ -5415,13 +5421,13 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
       <c t="s" r="H164" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
       <c r="K164" s="8"/>
       <c r="L164" s="9">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="M164" s="9"/>
       <c t="s" r="N164" s="7">
@@ -5433,7 +5439,7 @@
         <v>162</v>
       </c>
       <c t="s" r="B165" s="7">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -5441,13 +5447,13 @@
       <c r="F165" s="7"/>
       <c r="G165" s="7"/>
       <c t="s" r="H165" s="8">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
       <c r="K165" s="8"/>
       <c r="L165" s="9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M165" s="9"/>
       <c t="s" r="N165" s="7">
@@ -5467,13 +5473,13 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c t="s" r="H166" s="8">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
       <c r="K166" s="8"/>
       <c r="L166" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M166" s="9"/>
       <c t="s" r="N166" s="7">
@@ -5493,13 +5499,13 @@
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c t="s" r="H167" s="8">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
       <c r="K167" s="8"/>
       <c r="L167" s="9">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M167" s="9"/>
       <c t="s" r="N167" s="7">
@@ -5519,13 +5525,13 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c t="s" r="H168" s="8">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
       <c r="K168" s="8"/>
       <c r="L168" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M168" s="9"/>
       <c t="s" r="N168" s="7">
@@ -5545,7 +5551,7 @@
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c t="s" r="H169" s="8">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
@@ -5571,51 +5577,103 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c t="s" r="H170" s="8">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M170" s="9"/>
       <c t="s" r="N170" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="171" ht="25.5" customHeight="1">
-      <c r="K171" s="10">
-        <v>10812.31</v>
-      </c>
-      <c r="L171" s="10"/>
-      <c r="M171" s="10"/>
-      <c r="N171" s="10"/>
-    </row>
-    <row r="172" ht="16.5" customHeight="1">
-      <c t="s" r="A172" s="11">
+    <row r="171" ht="24.75" customHeight="1">
+      <c r="A171" s="6">
+        <v>168</v>
+      </c>
+      <c t="s" r="B171" s="7">
         <v>218</v>
       </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c t="s" r="F172" s="12">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c t="s" r="H171" s="8">
+        <v>11</v>
+      </c>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="9">
+        <v>40</v>
+      </c>
+      <c r="M171" s="9"/>
+      <c t="s" r="N171" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" ht="25.5" customHeight="1">
+      <c r="A172" s="6">
+        <v>169</v>
+      </c>
+      <c t="s" r="B172" s="7">
         <v>219</v>
       </c>
-      <c r="G172" s="12"/>
-      <c r="H172" s="13"/>
-      <c t="s" r="I172" s="14">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c t="s" r="H172" s="8">
+        <v>72</v>
+      </c>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="9">
+        <v>30</v>
+      </c>
+      <c r="M172" s="9"/>
+      <c t="s" r="N172" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" ht="25.5" customHeight="1">
+      <c r="K173" s="10">
+        <v>10866.31</v>
+      </c>
+      <c r="L173" s="10"/>
+      <c r="M173" s="10"/>
+      <c r="N173" s="10"/>
+    </row>
+    <row r="174" ht="17.25" customHeight="1">
+      <c t="s" r="A174" s="11">
         <v>220</v>
       </c>
-      <c r="J172" s="14"/>
-      <c r="K172" s="14"/>
-      <c r="L172" s="14"/>
-      <c r="M172" s="14"/>
-      <c r="N172" s="14"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c t="s" r="F174" s="12">
+        <v>221</v>
+      </c>
+      <c r="G174" s="12"/>
+      <c r="H174" s="13"/>
+      <c t="s" r="I174" s="14">
+        <v>222</v>
+      </c>
+      <c r="J174" s="14"/>
+      <c r="K174" s="14"/>
+      <c r="L174" s="14"/>
+      <c r="M174" s="14"/>
+      <c r="N174" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="518">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -6124,10 +6182,16 @@
     <mergeCell ref="B170:G170"/>
     <mergeCell ref="H170:K170"/>
     <mergeCell ref="L170:M170"/>
-    <mergeCell ref="K171:N171"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="I172:N172"/>
+    <mergeCell ref="B171:G171"/>
+    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="H172:K172"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="K173:N173"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="I174:N174"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
